--- a/biology/Médecine/Jean-Baptiste_Foucart/Jean-Baptiste_Foucart.xlsx
+++ b/biology/Médecine/Jean-Baptiste_Foucart/Jean-Baptiste_Foucart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Foucart (1768-1845) est le chirurgien-major des Dragons de la Garde impériale.
 Il voit le jour le 25 juillet 1768 à Ligny-Saint-Flochel, dans le Pas-de-Calais. Entré dans l'armée comme chirurgien de 3e classe en 1794, il est reçu docteur en médecine par la Faculté de Paris en 1805, et sert comme chirurgien-major des dragons de la Garde impériale de 1808 à 1814. Il est décoré des ordres impériaux de la Légion d'honneur en 1807 et de la Réunion en 1814.
-Il est décédé le 4 octobre 1845 à Paris et repose dans le caveau familial avec son épouse, Appoline Martin-d’Anzay, dans la 12e division, chemin Talma, au cimetière du Père-Lachaise (12e division)[1].
+Il est décédé le 4 octobre 1845 à Paris et repose dans le caveau familial avec son épouse, Appoline Martin-d’Anzay, dans la 12e division, chemin Talma, au cimetière du Père-Lachaise (12e division).
 </t>
         </is>
       </c>
